--- a/Results.xlsx
+++ b/Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="76">
   <si>
     <t>#</t>
   </si>
@@ -61,7 +61,7 @@
     <t>CustomField.{Ticket Severity}</t>
   </si>
   <si>
-    <t>SEV 3 - Batches in Error with No Message</t>
+    <t>Payment Source Report Updates</t>
   </si>
   <si>
     <t>resolved</t>
@@ -70,150 +70,84 @@
     <t>Projects - Ontario - PROD</t>
   </si>
   <si>
+    <t>farzana.aziz (Farzana Aziz )</t>
+  </si>
+  <si>
+    <t>donna.schmitz (Donna Schmitz)</t>
+  </si>
+  <si>
+    <t>Tue, Apr 23, 2024 1:16:22 PM</t>
+  </si>
+  <si>
+    <t>Not set</t>
+  </si>
+  <si>
+    <t>Thu, May 30, 2024 1:47:33 PM</t>
+  </si>
+  <si>
+    <t>Customer Testing</t>
+  </si>
+  <si>
+    <t>Severity 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR75 - Daily Bank Deposit Summary Report </t>
+  </si>
+  <si>
+    <t>stalled</t>
+  </si>
+  <si>
+    <t>jeff.jostes (Jeff Jostes)</t>
+  </si>
+  <si>
+    <t>brenda.boyle (Brenda Boyle)</t>
+  </si>
+  <si>
+    <t>Tue, Apr 30, 2024 10:06:48 AM</t>
+  </si>
+  <si>
+    <t>Thu, May 23, 2024 9:47:51 AM</t>
+  </si>
+  <si>
+    <t>Create CR/SOW</t>
+  </si>
+  <si>
+    <t>Cheque Negotiability Validation Rules - Updates Needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Validation Rules - Cheque Negotiability </t>
+  </si>
+  <si>
+    <t>tamara.gardner (Tamara Gardner)</t>
+  </si>
+  <si>
+    <t>Wed, May 1, 2024 9:42:41 AM</t>
+  </si>
+  <si>
+    <t>Thu, May 16, 2024 10:48:23 AM</t>
+  </si>
+  <si>
+    <t>SEV 3 - OPEX scanners accepting double feed without alerts</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
     <t>ben.whyte (Ben Whyte)</t>
   </si>
   <si>
-    <t>Mon, Apr 22, 2024 10:45:00 AM</t>
-  </si>
-  <si>
-    <t>Fri, May 24, 2024 2:44:44 PM</t>
-  </si>
-  <si>
-    <t>Tue, May 28, 2024 7:53:14 PM</t>
-  </si>
-  <si>
-    <t>Not set</t>
-  </si>
-  <si>
-    <t>Customer Testing</t>
+    <t>Thu, May 2, 2024 4:15:21 PM</t>
+  </si>
+  <si>
+    <t>Thu, May 9, 2024 2:02:41 PM</t>
+  </si>
+  <si>
+    <t>Meeting To Be Scheduled</t>
   </si>
   <si>
     <t>Severity 3</t>
   </si>
   <si>
-    <t>Payment Source Report Updates</t>
-  </si>
-  <si>
-    <t>ffxqa</t>
-  </si>
-  <si>
-    <t>francesco.leising (Francesco Leising)</t>
-  </si>
-  <si>
-    <t>donna.schmitz (Donna Schmitz)</t>
-  </si>
-  <si>
-    <t>Tue, Apr 23, 2024 1:16:22 PM</t>
-  </si>
-  <si>
-    <t>Tue, May 28, 2024 9:58:35 AM</t>
-  </si>
-  <si>
-    <t>FFX Testing</t>
-  </si>
-  <si>
-    <t>Severity 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR75 - Daily Bank Deposit Summary Report </t>
-  </si>
-  <si>
-    <t>stalled</t>
-  </si>
-  <si>
-    <t>jeff.jostes (Jeff Jostes)</t>
-  </si>
-  <si>
-    <t>brenda.boyle (Brenda Boyle)</t>
-  </si>
-  <si>
-    <t>Tue, Apr 30, 2024 10:06:48 AM</t>
-  </si>
-  <si>
-    <t>Thu, May 23, 2024 9:47:51 AM</t>
-  </si>
-  <si>
-    <t>Create CR/SOW</t>
-  </si>
-  <si>
-    <t>Cheque Negotiability Validation Rules - Updates Needed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Validation Rules - Cheque Negotiability </t>
-  </si>
-  <si>
-    <t>tamara.gardner (Tamara Gardner)</t>
-  </si>
-  <si>
-    <t>Wed, May 1, 2024 9:42:41 AM</t>
-  </si>
-  <si>
-    <t>Thu, May 16, 2024 10:48:23 AM</t>
-  </si>
-  <si>
-    <t>SEV 2 - Quick Print Transactions writing invalid $0.00 payments on F030</t>
-  </si>
-  <si>
-    <t>Wed, May 1, 2024 12:13:55 PM</t>
-  </si>
-  <si>
-    <t>Wed, May 29, 2024 2:16:22 PM</t>
-  </si>
-  <si>
-    <t>Sev 2: F060 MCR Credit Total &amp; Debit Total Amounts are Incorrect</t>
-  </si>
-  <si>
-    <t>aravinth.ramalingam (Aravinth Ramalingam)</t>
-  </si>
-  <si>
-    <t>Thu, May 2, 2024 12:23:54 PM</t>
-  </si>
-  <si>
-    <t>Wed, May 29, 2024 2:20:55 PM</t>
-  </si>
-  <si>
-    <t>SEV 3 - OPEX scanners accepting double feed without alerts</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <t>Thu, May 2, 2024 4:15:21 PM</t>
-  </si>
-  <si>
-    <t>Thu, May 9, 2024 2:02:41 PM</t>
-  </si>
-  <si>
-    <t>Meeting To Be Scheduled</t>
-  </si>
-  <si>
-    <t>IMAGE Only - correspondence</t>
-  </si>
-  <si>
-    <t>Tue, May 7, 2024 10:13:27 AM</t>
-  </si>
-  <si>
-    <t>Wed, May 29, 2024 10:54:31 AM</t>
-  </si>
-  <si>
-    <t>'20240507032682002</t>
-  </si>
-  <si>
-    <t>SEV 3 - Operators prompted to key PostMark Date in ChequeOnly queue</t>
-  </si>
-  <si>
-    <t>bukola.ogeleka (Bukola Ogeleka)</t>
-  </si>
-  <si>
-    <t>Tue, May 7, 2024 1:24:06 PM</t>
-  </si>
-  <si>
-    <t>Thu, May 16, 2024 1:00:32 PM</t>
-  </si>
-  <si>
-    <t>Wed, May 29, 2024 3:45:24 PM</t>
-  </si>
-  <si>
     <t>SEV 2 - Prevent $0.00 payment vouchers from advancing through Balance Queue</t>
   </si>
   <si>
@@ -244,48 +178,21 @@
     <t>Tue, May 28, 2024 7:55:28 PM</t>
   </si>
   <si>
-    <t>Sev 3: IFT_QUAR_RETU_L Invalid Data in Units Field, other Invalid Data OCR'd to output</t>
-  </si>
-  <si>
-    <t>mariaalejandra.gonzalezmoctezuma (Maria Alejandra Gonzalez Moctezuma)</t>
-  </si>
-  <si>
-    <t>Tue, May 21, 2024 5:16:50 PM</t>
-  </si>
-  <si>
-    <t>Wed, May 22, 2024 8:20:09 AM</t>
-  </si>
-  <si>
-    <t>Tue, May 28, 2024 7:58:40 PM</t>
-  </si>
-  <si>
-    <t>SEV 4: IFT Quarterly Return Allowing Negative Amount to be Entered in 'Interjurisdictional Units' field</t>
-  </si>
-  <si>
-    <t>catherine.ryan (Catherine Ryan)</t>
-  </si>
-  <si>
-    <t>Wed, May 22, 2024 3:29:53 PM</t>
-  </si>
-  <si>
-    <t>Wed, May 29, 2024 3:19:01 PM</t>
+    <t>Sev 4 - Emails being split into multiple documents in EPIC</t>
+  </si>
+  <si>
+    <t>lisa.parsons (Lisa Parsons)</t>
+  </si>
+  <si>
+    <t>Thu, May 23, 2024 9:25:52 AM</t>
+  </si>
+  <si>
+    <t>Thu, May 23, 2024 2:04:26 PM</t>
   </si>
   <si>
     <t>Severity 4</t>
   </si>
   <si>
-    <t>Sev 4 - Emails being split into multiple documents in EPIC</t>
-  </si>
-  <si>
-    <t>lisa.parsons (Lisa Parsons)</t>
-  </si>
-  <si>
-    <t>Thu, May 23, 2024 9:25:52 AM</t>
-  </si>
-  <si>
-    <t>Thu, May 23, 2024 2:04:26 PM</t>
-  </si>
-  <si>
     <t>MIT Virtual Voucher- Installment payment type</t>
   </si>
   <si>
@@ -295,15 +202,6 @@
     <t>Thu, May 23, 2024 2:39:21 PM</t>
   </si>
   <si>
-    <t>SEV 3 - Operators prompted to key incorrect documents in CreateLetter queue</t>
-  </si>
-  <si>
-    <t>Fri, May 24, 2024 8:28:41 AM</t>
-  </si>
-  <si>
-    <t>Wed, May 29, 2024 4:26:31 PM</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Illegible DLN Burn on FTP supporting documents</t>
   </si>
   <si>
@@ -323,6 +221,27 @@
   </si>
   <si>
     <t>Tue, May 28, 2024 7:55:02 PM</t>
+  </si>
+  <si>
+    <t>System not requesting operator key for Postmark date in CheckOnly queue when processing IFTA voucher</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>andy.herdlein (Andy Herdlein)</t>
+  </si>
+  <si>
+    <t>ayesa.parvin (Ayesa Parvin)</t>
+  </si>
+  <si>
+    <t>Thu, May 30, 2024 10:16:34 AM</t>
+  </si>
+  <si>
+    <t>Thu, May 30, 2024 10:28:02 AM</t>
+  </si>
+  <si>
+    <t>Customer Generated Ticket</t>
   </si>
 </sst>
 </file>
@@ -654,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,7 +628,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2">
-        <v>104174</v>
+        <v>104204</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -727,19 +646,19 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
         <v>23</v>
@@ -750,7 +669,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
-        <v>104204</v>
+        <v>104342</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -765,7 +684,7 @@
         <v>27</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
         <v>28</v>
@@ -774,224 +693,224 @@
         <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
         <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
-        <v>104342</v>
+        <v>104379</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
         <v>35</v>
       </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
-        <v>104379</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
+        <v>104425</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
         <v>42</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>104385</v>
+        <v>104523</v>
       </c>
       <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>104412</v>
+        <v>104539</v>
       </c>
       <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>51</v>
-      </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>104425</v>
+        <v>104642</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="O8" t="s">
         <v>24</v>
@@ -999,10 +918,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>104470</v>
+        <v>104684</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1011,532 +930,239 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" t="s">
         <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>104480</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
+        <v>104836</v>
+      </c>
+      <c r="B10">
+        <v>20240521940001001</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="O10" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
-        <v>104523</v>
+        <v>104843</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
-        <v>104539</v>
+        <v>104852</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
-        <v>104642</v>
+        <v>104899</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
-        <v>104684</v>
+        <v>104963</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="G14">
         <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
         <v>74</v>
       </c>
-      <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
         <v>75</v>
       </c>
-      <c r="M14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" t="s">
-        <v>23</v>
-      </c>
       <c r="O14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15">
-        <v>104806</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" t="s">
-        <v>80</v>
-      </c>
-      <c r="M15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16">
-        <v>104830</v>
-      </c>
-      <c r="B16">
-        <v>20240522017169</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="I16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17">
-        <v>104836</v>
-      </c>
-      <c r="B17">
-        <v>20240521940001001</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18">
-        <v>104843</v>
-      </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" t="s">
-        <v>92</v>
-      </c>
-      <c r="M18" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19">
-        <v>104851</v>
-      </c>
-      <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20">
-        <v>104852</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" t="s">
-        <v>98</v>
-      </c>
-      <c r="M20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21">
-        <v>104899</v>
-      </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" t="s">
-        <v>100</v>
-      </c>
-      <c r="K21" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21" t="s">
-        <v>102</v>
-      </c>
-      <c r="M21" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
